--- a/הצעת פרוייקט כלל העבודות.xlsx
+++ b/הצעת פרוייקט כלל העבודות.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayp\Google Drive\Programing\הצעת פרוייקט\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayp\Google Drive\Programing\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7531E-92BF-4419-BA6C-9A4C125FA806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBD374-79DA-49B8-A4AC-9B8101C9188F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32F1EC91-BA29-4495-9305-16FB830944F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32F1EC91-BA29-4495-9305-16FB830944F8}"/>
   </bookViews>
   <sheets>
     <sheet name="חלק א" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/הצעת פרוייקט כלל העבודות.xlsx
+++ b/הצעת פרוייקט כלל העבודות.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayp\Google Drive\Programing\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBD374-79DA-49B8-A4AC-9B8101C9188F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382156F4-B93C-433F-A6E8-AB4062663515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32F1EC91-BA29-4495-9305-16FB830944F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32F1EC91-BA29-4495-9305-16FB830944F8}"/>
   </bookViews>
   <sheets>
     <sheet name="חלק א" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t xml:space="preserve">חלק בפרויקט </t>
   </si>
@@ -57,20 +57,10 @@
     <t>הערות</t>
   </si>
   <si>
-    <t>ניתן להעתיק כמעט הכל מEPARK
- ולשנות נתונים+B2:C2</t>
-  </si>
-  <si>
     <t>Prototype</t>
   </si>
   <si>
     <t>יצירה בMARVELL</t>
-  </si>
-  <si>
-    <t>התחלתי - יש לסיים מספר חלקים</t>
-  </si>
-  <si>
-    <t>בוצע 50 אחוז</t>
   </si>
   <si>
     <t>טבלת דרישות</t>
@@ -372,13 +362,16 @@
   </si>
   <si>
     <t>במקרה ויש בסיס נתונים בפרוייקט</t>
+  </si>
+  <si>
+    <t>בוצע</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,13 +428,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -473,6 +479,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +798,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,70 +834,88 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -934,97 +960,97 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
